--- a/Hero/extra/listas.xlsx
+++ b/Hero/extra/listas.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lbustos\Desktop\Embrace_py\Hero\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2592CC59-DF56-4BBF-8260-94818EAD9B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93049AD8-3E96-487E-8E71-04AF109C09BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HERO2" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$1:$B$423</definedName>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">HERO2!$A$1:$D$1463</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4841" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5174" uniqueCount="488">
   <si>
     <t>Case Status</t>
   </si>
@@ -22410,10 +22412,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:B423"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22430,7 +22433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -22438,7 +22441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -22526,7 +22529,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>130</v>
       </c>
@@ -22606,7 +22609,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>375</v>
       </c>
@@ -22630,7 +22633,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>409</v>
       </c>
@@ -22646,7 +22649,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>50</v>
       </c>
@@ -22701,7 +22704,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>61</v>
       </c>
@@ -22771,7 +22774,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
         <v>80</v>
       </c>
@@ -22836,7 +22839,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
         <v>94</v>
       </c>
@@ -22876,7 +22879,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
         <v>104</v>
       </c>
@@ -22931,7 +22934,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="6" t="s">
         <v>114</v>
       </c>
@@ -22946,7 +22949,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>117</v>
       </c>
@@ -22956,7 +22959,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
         <v>120</v>
       </c>
@@ -22986,7 +22989,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
         <v>127</v>
       </c>
@@ -22996,7 +22999,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
         <v>129</v>
       </c>
@@ -23031,7 +23034,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B106" s="5" t="s">
         <v>137</v>
       </c>
@@ -23041,12 +23044,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109" s="6" t="s">
         <v>141</v>
       </c>
@@ -23056,7 +23059,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="6" t="s">
         <v>143</v>
       </c>
@@ -23076,7 +23079,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="6" t="s">
         <v>147</v>
       </c>
@@ -23091,7 +23094,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" s="6" t="s">
         <v>150</v>
       </c>
@@ -23101,7 +23104,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120" s="6" t="s">
         <v>152</v>
       </c>
@@ -23136,12 +23139,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128" s="6" t="s">
         <v>161</v>
       </c>
@@ -23171,12 +23174,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B134" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" s="6" t="s">
         <v>168</v>
       </c>
@@ -23186,17 +23189,17 @@
         <v>169</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B137" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139" s="5" t="s">
         <v>172</v>
       </c>
@@ -23216,7 +23219,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B143" s="6" t="s">
         <v>177</v>
       </c>
@@ -23231,7 +23234,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="6" t="s">
         <v>180</v>
       </c>
@@ -23276,7 +23279,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B155" s="5" t="s">
         <v>190</v>
       </c>
@@ -23296,7 +23299,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159" s="6" t="s">
         <v>195</v>
       </c>
@@ -23311,12 +23314,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B162" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="6" t="s">
         <v>200</v>
       </c>
@@ -23326,7 +23329,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165" s="5" t="s">
         <v>202</v>
       </c>
@@ -23346,7 +23349,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B169" s="5" t="s">
         <v>207</v>
       </c>
@@ -23356,7 +23359,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B171" s="6" t="s">
         <v>209</v>
       </c>
@@ -23366,7 +23369,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B173" s="5" t="s">
         <v>211</v>
       </c>
@@ -23381,7 +23384,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176" s="5" t="s">
         <v>217</v>
       </c>
@@ -23396,7 +23399,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B179" s="6" t="s">
         <v>221</v>
       </c>
@@ -23411,7 +23414,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="5" t="s">
         <v>224</v>
       </c>
@@ -23486,12 +23489,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B197" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B198" s="6" t="s">
         <v>240</v>
       </c>
@@ -23511,7 +23514,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B202" s="5" t="s">
         <v>244</v>
       </c>
@@ -23546,7 +23549,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B209" s="6" t="s">
         <v>252</v>
       </c>
@@ -23556,7 +23559,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B211" s="5" t="s">
         <v>254</v>
       </c>
@@ -23586,7 +23589,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="6" t="s">
         <v>260</v>
       </c>
@@ -23601,12 +23604,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B221" s="6" t="s">
         <v>264</v>
       </c>
@@ -23641,7 +23644,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B228" s="6" t="s">
         <v>271</v>
       </c>
@@ -23661,12 +23664,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B232" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B233" s="6" t="s">
         <v>278</v>
       </c>
@@ -23696,7 +23699,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B239" s="5" t="s">
         <v>285</v>
       </c>
@@ -23711,7 +23714,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B242" s="5" t="s">
         <v>288</v>
       </c>
@@ -23731,7 +23734,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B246" s="5" t="s">
         <v>292</v>
       </c>
@@ -23771,7 +23774,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B254" s="5" t="s">
         <v>300</v>
       </c>
@@ -23836,7 +23839,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B267" s="5" t="s">
         <v>316</v>
       </c>
@@ -23846,7 +23849,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B269" s="5" t="s">
         <v>318</v>
       </c>
@@ -23876,7 +23879,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B275" s="6" t="s">
         <v>324</v>
       </c>
@@ -23906,7 +23909,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B281" s="5" t="s">
         <v>331</v>
       </c>
@@ -23931,7 +23934,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B286" s="6" t="s">
         <v>338</v>
       </c>
@@ -23986,7 +23989,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B297" s="5" t="s">
         <v>350</v>
       </c>
@@ -23996,12 +23999,12 @@
         <v>351</v>
       </c>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B299" s="6" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B300" s="5" t="s">
         <v>353</v>
       </c>
@@ -24076,12 +24079,12 @@
         <v>367</v>
       </c>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B315" s="5" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B316" s="5" t="s">
         <v>369</v>
       </c>
@@ -24101,7 +24104,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B320" s="6" t="s">
         <v>373</v>
       </c>
@@ -24131,7 +24134,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B326" s="6" t="s">
         <v>380</v>
       </c>
@@ -24151,7 +24154,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B330" s="5" t="s">
         <v>384</v>
       </c>
@@ -24176,7 +24179,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B335" s="6" t="s">
         <v>389</v>
       </c>
@@ -24216,7 +24219,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B343" s="6" t="s">
         <v>400</v>
       </c>
@@ -24276,7 +24279,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B355" s="6" t="s">
         <v>416</v>
       </c>
@@ -24321,7 +24324,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B364" s="6" t="s">
         <v>425</v>
       </c>
@@ -24341,7 +24344,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B368" s="6" t="s">
         <v>429</v>
       </c>
@@ -24371,7 +24374,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B374" s="6" t="s">
         <v>435</v>
       </c>
@@ -24441,22 +24444,22 @@
         <v>448</v>
       </c>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B388" s="6" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B389" s="6" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B390" s="6" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B391" s="5" t="s">
         <v>452</v>
       </c>
@@ -24466,7 +24469,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B393" s="6" t="s">
         <v>454</v>
       </c>
@@ -24476,7 +24479,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B395" s="5" t="s">
         <v>457</v>
       </c>
@@ -24521,7 +24524,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B404" s="5" t="s">
         <v>466</v>
       </c>
@@ -24541,7 +24544,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B408" s="5" t="s">
         <v>470</v>
       </c>
@@ -24551,7 +24554,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B410" s="5" t="s">
         <v>472</v>
       </c>
@@ -24566,12 +24569,12 @@
         <v>474</v>
       </c>
     </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B413" s="6" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B414" s="5" t="s">
         <v>476</v>
       </c>
@@ -24581,12 +24584,12 @@
         <v>477</v>
       </c>
     </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B416" s="5" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B417" s="5" t="s">
         <v>480</v>
       </c>
@@ -24622,8 +24625,2027 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B423" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="· R11.0,  A91,R11"/>
+        <filter val="07.9"/>
+        <filter val="10.2"/>
+        <filter val="25.53"/>
+        <filter val="780.6"/>
+        <filter val="93.9"/>
+        <filter val="A00.9"/>
+        <filter val="A01"/>
+        <filter val="A01.3"/>
+        <filter val="A01.4"/>
+        <filter val="A07.9"/>
+        <filter val="A09"/>
+        <filter val="A09, R42, R53, R50  R11"/>
+        <filter val="A09, R42, R53, R50 R11"/>
+        <filter val="A27.8"/>
+        <filter val="A37"/>
+        <filter val="A37. - J17.0"/>
+        <filter val="A48.3"/>
+        <filter val="A50.5"/>
+        <filter val="A69.0"/>
+        <filter val="A77.9"/>
+        <filter val="A91"/>
+        <filter val="A91,; A00.9,  R51,"/>
+        <filter val="A91,; A00.9, R51,"/>
+        <filter val="A91.0"/>
+        <filter val="APENDICITIS ; K37, Apendicitis"/>
+        <filter val="B00"/>
+        <filter val="B00.1"/>
+        <filter val="B07"/>
+        <filter val="B37.0"/>
+        <filter val="B37.9"/>
+        <filter val="CID 10 - S91 - Ferimentos do tornozelo e do pé"/>
+        <filter val="CID 10 R07.0 Dor de garganta"/>
+        <filter val="CID 10 Z01.6 Exame radiológico"/>
+        <filter val="CID M79.6 – Dor em membro"/>
+        <filter val="CM K08"/>
+        <filter val="D69.0"/>
+        <filter val="DIENTE ; K01.1"/>
+        <filter val="DIENTE ; K01.1, Diente impactado"/>
+        <filter val="Dolor en la pierna ; R07.3,"/>
+        <filter val="f41"/>
+        <filter val="F41.0"/>
+        <filter val="F44.5"/>
+        <filter val="F44.6"/>
+        <filter val="F45.8"/>
+        <filter val="G43"/>
+        <filter val="G43.8"/>
+        <filter val="G47.0"/>
+        <filter val="G51.0"/>
+        <filter val="H00"/>
+        <filter val="H02"/>
+        <filter val="H02. 84"/>
+        <filter val="H04.3"/>
+        <filter val="H10"/>
+        <filter val="H10. 9"/>
+        <filter val="H10.33"/>
+        <filter val="H10.9"/>
+        <filter val="h13.1"/>
+        <filter val="H44.1"/>
+        <filter val="H57"/>
+        <filter val="H57.1"/>
+        <filter val="H60"/>
+        <filter val="H66.9"/>
+        <filter val="H83"/>
+        <filter val="H92.0"/>
+        <filter val="H92.01"/>
+        <filter val="H92.01 - Otalgia, right ear"/>
+        <filter val="I10"/>
+        <filter val="I11"/>
+        <filter val="I12. 0"/>
+        <filter val="I20.9"/>
+        <filter val="I46"/>
+        <filter val="I50.1"/>
+        <filter val="I63.4"/>
+        <filter val="I64"/>
+        <filter val="I84"/>
+        <filter val="I95.9"/>
+        <filter val="J00"/>
+        <filter val="J01. 90"/>
+        <filter val="J01.1"/>
+        <filter val="J01.9"/>
+        <filter val="J02. 9"/>
+        <filter val="J02.9"/>
+        <filter val="J03.9"/>
+        <filter val="J06"/>
+        <filter val="J09-19"/>
+        <filter val="J11"/>
+        <filter val="J11.1"/>
+        <filter val="J11.1_x0009_Influenza"/>
+        <filter val="J11.1, A91,R07.0"/>
+        <filter val="J11.1,R07.0"/>
+        <filter val="J18. 9"/>
+        <filter val="J18.9"/>
+        <filter val="J20. 9"/>
+        <filter val="J30"/>
+        <filter val="J30 y J01. 90"/>
+        <filter val="J30.1"/>
+        <filter val="J30.2"/>
+        <filter val="J30.9"/>
+        <filter val="J32.0"/>
+        <filter val="J32.9"/>
+        <filter val="J34"/>
+        <filter val="J39.2"/>
+        <filter val="j45"/>
+        <filter val="J45,1"/>
+        <filter val="J70.0"/>
+        <filter val="J98.4"/>
+        <filter val="K00.2"/>
+        <filter val="K00.6"/>
+        <filter val="K01.1"/>
+        <filter val="K08"/>
+        <filter val="K08. 89"/>
+        <filter val="K08.1"/>
+        <filter val="K08.8"/>
+        <filter val="K08.8,"/>
+        <filter val="K08.89"/>
+        <filter val="K10.8"/>
+        <filter val="K13.70"/>
+        <filter val="K35 – K38"/>
+        <filter val="K35.1"/>
+        <filter val="K56. 609"/>
+        <filter val="K64"/>
+        <filter val="K91.0 y R07.0"/>
+        <filter val="L02"/>
+        <filter val="L02.4 / L08.9 / R52.9"/>
+        <filter val="L02.811"/>
+        <filter val="L03.0,"/>
+        <filter val="L05.0"/>
+        <filter val="L08"/>
+        <filter val="L08.9"/>
+        <filter val="L20"/>
+        <filter val="L29,2"/>
+        <filter val="L29. 2"/>
+        <filter val="L30. 9"/>
+        <filter val="L30.9"/>
+        <filter val="L40"/>
+        <filter val="L44.3"/>
+        <filter val="L50.0"/>
+        <filter val="L55.9"/>
+        <filter val="L60."/>
+        <filter val="L70.0"/>
+        <filter val="L81"/>
+        <filter val="L98.4"/>
+        <filter val="L98.9"/>
+        <filter val="M13.1"/>
+        <filter val="M21.6"/>
+        <filter val="M23"/>
+        <filter val="M23.6"/>
+        <filter val="M25.56"/>
+        <filter val="M25.561"/>
+        <filter val="M26.69"/>
+        <filter val="M54"/>
+        <filter val="M54,5"/>
+        <filter val="M54,89"/>
+        <filter val="M54.3"/>
+        <filter val="M54.5"/>
+        <filter val="M54.89 - Other dorsalgia"/>
+        <filter val="M54.9"/>
+        <filter val="M54.9,"/>
+        <filter val="M75"/>
+        <filter val="M79. 67"/>
+        <filter val="M79.6"/>
+        <filter val="M79.6,"/>
+        <filter val="M79.671"/>
+        <filter val="M79.672"/>
+        <filter val="N20.0"/>
+        <filter val="N23"/>
+        <filter val="N28"/>
+        <filter val="N30.0"/>
+        <filter val="N30.90"/>
+        <filter val="N39"/>
+        <filter val="N39.0"/>
+        <filter val="N39.0 - Urinary tract infection, site not specified"/>
+        <filter val="N48"/>
+        <filter val="N70.9"/>
+        <filter val="N76"/>
+        <filter val="N76.89"/>
+        <filter val="N77.1"/>
+        <filter val="N83"/>
+        <filter val="N89.8"/>
+        <filter val="N90"/>
+        <filter val="N93.9"/>
+        <filter val="NO HAY"/>
+        <filter val="O26.859"/>
+        <filter val="P02.1"/>
+        <filter val="P54.6."/>
+        <filter val="R00.0 / R61.9"/>
+        <filter val="R03"/>
+        <filter val="r05"/>
+        <filter val="R05 / R50.9 / RO6.0"/>
+        <filter val="R05 R06"/>
+        <filter val="R06"/>
+        <filter val="R06.0"/>
+        <filter val="R06.2"/>
+        <filter val="R07"/>
+        <filter val="R07,0"/>
+        <filter val="R07.0"/>
+        <filter val="R07.0, R10.1l"/>
+        <filter val="R07.0, R50.9, R05"/>
+        <filter val="R07.0,J11.1"/>
+        <filter val="R07.3"/>
+        <filter val="R07.3,"/>
+        <filter val="R07.4"/>
+        <filter val="R09.81"/>
+        <filter val="R10"/>
+        <filter val="R10,1"/>
+        <filter val="R10,13"/>
+        <filter val="R10. 9"/>
+        <filter val="R10.0"/>
+        <filter val="R10.0,"/>
+        <filter val="R10.1"/>
+        <filter val="R10.1l"/>
+        <filter val="R10.2"/>
+        <filter val="R10.2,"/>
+        <filter val="R10.4"/>
+        <filter val="R10.9"/>
+        <filter val="R11"/>
+        <filter val="R11 / R10.1l"/>
+        <filter val="R11 / R42 / I10"/>
+        <filter val="R11 y R05"/>
+        <filter val="R11, F51"/>
+        <filter val="R11.10"/>
+        <filter val="R11/ T75.3 / G9O.9"/>
+        <filter val="R19,7"/>
+        <filter val="R19.7"/>
+        <filter val="R21"/>
+        <filter val="R25.2"/>
+        <filter val="R30"/>
+        <filter val="R30. 9"/>
+        <filter val="R30.9"/>
+        <filter val="R30.9,"/>
+        <filter val="R31"/>
+        <filter val="R319"/>
+        <filter val="R42"/>
+        <filter val="R42 / R41.3 / R51"/>
+        <filter val="R42,"/>
+        <filter val="r50"/>
+        <filter val="R50 J00"/>
+        <filter val="R50,9"/>
+        <filter val="R50.0 R11  R05"/>
+        <filter val="R50.9"/>
+        <filter val="R50.9 / M54.9"/>
+        <filter val="R50.9 / M79.5"/>
+        <filter val="R50-R69"/>
+        <filter val="R51"/>
+        <filter val="R51 / R05"/>
+        <filter val="R51 y R50"/>
+        <filter val="R51.9, N30.9"/>
+        <filter val="R52"/>
+        <filter val="R52.0"/>
+        <filter val="R52.9"/>
+        <filter val="R52.9,"/>
+        <filter val="R53"/>
+        <filter val="R55"/>
+        <filter val="R55 I10"/>
+        <filter val="R60"/>
+        <filter val="R61"/>
+        <filter val="R61.9"/>
+        <filter val="RO5"/>
+        <filter val="S003"/>
+        <filter val="S00-S09"/>
+        <filter val="S01"/>
+        <filter val="S01.0"/>
+        <filter val="S01.1"/>
+        <filter val="S01.5"/>
+        <filter val="S01.9"/>
+        <filter val="S02.5"/>
+        <filter val="S025"/>
+        <filter val="S10"/>
+        <filter val="S19"/>
+        <filter val="S30.1"/>
+        <filter val="S31.2"/>
+        <filter val="S34"/>
+        <filter val="S39.9"/>
+        <filter val="S40"/>
+        <filter val="S40.0"/>
+        <filter val="S41.8"/>
+        <filter val="S42"/>
+        <filter val="S42.1"/>
+        <filter val="S61.0"/>
+        <filter val="S61.1"/>
+        <filter val="S61.1,"/>
+        <filter val="S62"/>
+        <filter val="S63."/>
+        <filter val="S63.1"/>
+        <filter val="S69"/>
+        <filter val="S80"/>
+        <filter val="S80.0"/>
+        <filter val="S82.1"/>
+        <filter val="S82.5"/>
+        <filter val="S82.7"/>
+        <filter val="S83"/>
+        <filter val="S83.2"/>
+        <filter val="S83.20"/>
+        <filter val="S83.4"/>
+        <filter val="S90"/>
+        <filter val="S90 a S99"/>
+        <filter val="S90.0"/>
+        <filter val="S90-S99"/>
+        <filter val="S91"/>
+        <filter val="S91.2"/>
+        <filter val="S92"/>
+        <filter val="S92.2"/>
+        <filter val="S92.5"/>
+        <filter val="S93"/>
+        <filter val="S93.4"/>
+        <filter val="S93.4,"/>
+        <filter val="S93.5"/>
+        <filter val="S93.5,"/>
+        <filter val="S93.6 / R52.9"/>
+        <filter val="T10"/>
+        <filter val="T14"/>
+        <filter val="T14.1"/>
+        <filter val="T15.8"/>
+        <filter val="T19.3"/>
+        <filter val="T21"/>
+        <filter val="T63.3"/>
+        <filter val="T66"/>
+        <filter val="T73.0"/>
+        <filter val="T78"/>
+        <filter val="T78. 40XA"/>
+        <filter val="T78.1"/>
+        <filter val="T78.1 / I10"/>
+        <filter val="T78.4"/>
+        <filter val="T79"/>
+        <filter val="T85"/>
+        <filter val="U07.1 - COVID-19, virus identified"/>
+        <filter val="V00"/>
+        <filter val="V29"/>
+        <filter val="V29.5"/>
+        <filter val="W50.2"/>
+        <filter val="Z09.8"/>
+        <filter val="Z24.2 / T14."/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BA5E6F-058B-4B57-B624-A5579F04734D}">
+  <dimension ref="A1:A333"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
